--- a/natmiOut/OldD2/LR-pairs_lrc2p/Jam3-Jam2.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Jam3-Jam2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,6 +85,9 @@
     <t>M1</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>Neutro</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>Jam2</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>15.0550142484002</v>
+        <v>15.2299415</v>
       </c>
       <c r="H2">
-        <v>15.0550142484002</v>
+        <v>30.459883</v>
       </c>
       <c r="I2">
-        <v>0.2082594037053395</v>
+        <v>0.1927598375940027</v>
       </c>
       <c r="J2">
-        <v>0.2082594037053395</v>
+        <v>0.1676120348236416</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>93.8128443396003</v>
+        <v>93.83570850000001</v>
       </c>
       <c r="N2">
-        <v>93.8128443396003</v>
+        <v>187.671417</v>
       </c>
       <c r="O2">
-        <v>0.5801183217391283</v>
+        <v>0.5679500693534724</v>
       </c>
       <c r="P2">
-        <v>0.5801183217391283</v>
+        <v>0.4713618706519805</v>
       </c>
       <c r="Q2">
-        <v>1412.353708215633</v>
+        <v>1429.112351066053</v>
       </c>
       <c r="R2">
-        <v>1412.353708215633</v>
+        <v>5716.449404264212</v>
       </c>
       <c r="S2">
-        <v>0.1208150957639332</v>
+        <v>0.1094779631300779</v>
       </c>
       <c r="T2">
-        <v>0.1208150957639332</v>
+        <v>0.07900592227825659</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>15.0550142484002</v>
+        <v>15.2299415</v>
       </c>
       <c r="H3">
-        <v>15.0550142484002</v>
+        <v>30.459883</v>
       </c>
       <c r="I3">
-        <v>0.2082594037053395</v>
+        <v>0.1927598375940027</v>
       </c>
       <c r="J3">
-        <v>0.2082594037053395</v>
+        <v>0.1676120348236416</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.33378248243025</v>
+        <v>3.538394</v>
       </c>
       <c r="N3">
-        <v>3.33378248243025</v>
+        <v>10.615182</v>
       </c>
       <c r="O3">
-        <v>0.02061538920779066</v>
+        <v>0.02141648579016069</v>
       </c>
       <c r="P3">
-        <v>0.02061538920779066</v>
+        <v>0.02666144970190763</v>
       </c>
       <c r="Q3">
-        <v>50.19014277405441</v>
+        <v>53.889533623951</v>
       </c>
       <c r="R3">
-        <v>50.19014277405441</v>
+        <v>323.337201743706</v>
       </c>
       <c r="S3">
-        <v>0.004293348663567976</v>
+        <v>0.004128238322745641</v>
       </c>
       <c r="T3">
-        <v>0.004293348663567976</v>
+        <v>0.004468779835884909</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>15.0550142484002</v>
+        <v>15.2299415</v>
       </c>
       <c r="H4">
-        <v>15.0550142484002</v>
+        <v>30.459883</v>
       </c>
       <c r="I4">
-        <v>0.2082594037053395</v>
+        <v>0.1927598375940027</v>
       </c>
       <c r="J4">
-        <v>0.2082594037053395</v>
+        <v>0.1676120348236416</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.306862161406881</v>
+        <v>0.338692</v>
       </c>
       <c r="N4">
-        <v>0.306862161406881</v>
+        <v>1.016076</v>
       </c>
       <c r="O4">
-        <v>0.001897569179718997</v>
+        <v>0.002049967416076645</v>
       </c>
       <c r="P4">
-        <v>0.001897569179718997</v>
+        <v>0.002552010805591038</v>
       </c>
       <c r="Q4">
-        <v>4.619814212275475</v>
+        <v>5.158259346518</v>
       </c>
       <c r="R4">
-        <v>4.619814212275475</v>
+        <v>30.949556079108</v>
       </c>
       <c r="S4">
-        <v>0.0003951866258579086</v>
+        <v>0.0003951513861959315</v>
       </c>
       <c r="T4">
-        <v>0.0003951866258579086</v>
+        <v>0.0004277477240170347</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>15.0550142484002</v>
+        <v>15.2299415</v>
       </c>
       <c r="H5">
-        <v>15.0550142484002</v>
+        <v>30.459883</v>
       </c>
       <c r="I5">
-        <v>0.2082594037053395</v>
+        <v>0.1927598375940027</v>
       </c>
       <c r="J5">
-        <v>0.2082594037053395</v>
+        <v>0.1676120348236416</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.162677416618874</v>
+        <v>0.2282923333333333</v>
       </c>
       <c r="N5">
-        <v>0.162677416618874</v>
+        <v>0.684877</v>
       </c>
       <c r="O5">
-        <v>0.001005961929607135</v>
+        <v>0.001381762322917109</v>
       </c>
       <c r="P5">
-        <v>0.001005961929607135</v>
+        <v>0.001720160208981192</v>
       </c>
       <c r="Q5">
-        <v>2.449110825090083</v>
+        <v>3.476878881565167</v>
       </c>
       <c r="R5">
-        <v>2.449110825090083</v>
+        <v>20.861273289391</v>
       </c>
       <c r="S5">
-        <v>0.0002095010316102548</v>
+        <v>0.0002663482809590138</v>
       </c>
       <c r="T5">
-        <v>0.0002095010316102548</v>
+        <v>0.0002883195528499981</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>15.0550142484002</v>
+        <v>15.2299415</v>
       </c>
       <c r="H6">
-        <v>15.0550142484002</v>
+        <v>30.459883</v>
       </c>
       <c r="I6">
-        <v>0.2082594037053395</v>
+        <v>0.1927598375940027</v>
       </c>
       <c r="J6">
-        <v>0.2082594037053395</v>
+        <v>0.1676120348236416</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>61.3538582707218</v>
+        <v>63.60536699999999</v>
       </c>
       <c r="N6">
-        <v>61.3538582707218</v>
+        <v>190.816101</v>
       </c>
       <c r="O6">
-        <v>0.3793989782826268</v>
+        <v>0.3849778850329995</v>
       </c>
       <c r="P6">
-        <v>0.3793989782826268</v>
+        <v>0.4792601652167268</v>
       </c>
       <c r="Q6">
-        <v>923.6832104600431</v>
+        <v>968.7060184960304</v>
       </c>
       <c r="R6">
-        <v>923.6832104600431</v>
+        <v>5812.236110976182</v>
       </c>
       <c r="S6">
-        <v>0.07901340498355491</v>
+        <v>0.07420827459624364</v>
       </c>
       <c r="T6">
-        <v>0.07901340498355491</v>
+        <v>0.08032977150189022</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>15.0550142484002</v>
+        <v>15.2299415</v>
       </c>
       <c r="H7">
-        <v>15.0550142484002</v>
+        <v>30.459883</v>
       </c>
       <c r="I7">
-        <v>0.2082594037053395</v>
+        <v>0.1927598375940027</v>
       </c>
       <c r="J7">
-        <v>0.2082594037053395</v>
+        <v>0.1676120348236416</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.74326867662065</v>
+        <v>3.671782</v>
       </c>
       <c r="N7">
-        <v>2.74326867662065</v>
+        <v>7.343564</v>
       </c>
       <c r="O7">
-        <v>0.01696377966112813</v>
+        <v>0.02222383008437381</v>
       </c>
       <c r="P7">
-        <v>0.01696377966112813</v>
+        <v>0.01844434341481282</v>
       </c>
       <c r="Q7">
-        <v>41.29994901371385</v>
+        <v>55.921025060753</v>
       </c>
       <c r="R7">
-        <v>41.29994901371385</v>
+        <v>223.684100243012</v>
       </c>
       <c r="S7">
-        <v>0.003532866636815311</v>
+        <v>0.004283861877780608</v>
       </c>
       <c r="T7">
-        <v>0.003532866636815311</v>
+        <v>0.00309149393074281</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>9.5008582000443</v>
+        <v>10.15686033333333</v>
       </c>
       <c r="H8">
-        <v>9.5008582000443</v>
+        <v>30.470581</v>
       </c>
       <c r="I8">
-        <v>0.1314275118431369</v>
+        <v>0.1285516919627237</v>
       </c>
       <c r="J8">
-        <v>0.1314275118431369</v>
+        <v>0.1676709028615964</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>93.8128443396003</v>
+        <v>93.83570850000001</v>
       </c>
       <c r="N8">
-        <v>93.8128443396003</v>
+        <v>187.671417</v>
       </c>
       <c r="O8">
-        <v>0.5801183217391283</v>
+        <v>0.5679500693534724</v>
       </c>
       <c r="P8">
-        <v>0.5801183217391283</v>
+        <v>0.4713618706519805</v>
       </c>
       <c r="Q8">
-        <v>891.3025314133711</v>
+        <v>953.0761855138795</v>
       </c>
       <c r="R8">
-        <v>891.3025314133711</v>
+        <v>5718.457113083277</v>
       </c>
       <c r="S8">
-        <v>0.07624350760078996</v>
+        <v>0.07301094236573513</v>
       </c>
       <c r="T8">
-        <v>0.07624350760078996</v>
+        <v>0.07903367042674857</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>9.5008582000443</v>
+        <v>10.15686033333333</v>
       </c>
       <c r="H9">
-        <v>9.5008582000443</v>
+        <v>30.470581</v>
       </c>
       <c r="I9">
-        <v>0.1314275118431369</v>
+        <v>0.1285516919627237</v>
       </c>
       <c r="J9">
-        <v>0.1314275118431369</v>
+        <v>0.1676709028615964</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.33378248243025</v>
+        <v>3.538394</v>
       </c>
       <c r="N9">
-        <v>3.33378248243025</v>
+        <v>10.615182</v>
       </c>
       <c r="O9">
-        <v>0.02061538920779066</v>
+        <v>0.02141648579016069</v>
       </c>
       <c r="P9">
-        <v>0.02061538920779066</v>
+        <v>0.02666144970190763</v>
       </c>
       <c r="Q9">
-        <v>31.67379463536149</v>
+        <v>35.93897366230467</v>
       </c>
       <c r="R9">
-        <v>31.67379463536149</v>
+        <v>323.450762960742</v>
       </c>
       <c r="S9">
-        <v>0.002709429309257783</v>
+        <v>0.002753125484220785</v>
       </c>
       <c r="T9">
-        <v>0.002709429309257783</v>
+        <v>0.004470349343117891</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>9.5008582000443</v>
+        <v>10.15686033333333</v>
       </c>
       <c r="H10">
-        <v>9.5008582000443</v>
+        <v>30.470581</v>
       </c>
       <c r="I10">
-        <v>0.1314275118431369</v>
+        <v>0.1285516919627237</v>
       </c>
       <c r="J10">
-        <v>0.1314275118431369</v>
+        <v>0.1676709028615964</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.306862161406881</v>
+        <v>0.338692</v>
       </c>
       <c r="N10">
-        <v>0.306862161406881</v>
+        <v>1.016076</v>
       </c>
       <c r="O10">
-        <v>0.001897569179718997</v>
+        <v>0.002049967416076645</v>
       </c>
       <c r="P10">
-        <v>0.001897569179718997</v>
+        <v>0.002552010805591038</v>
       </c>
       <c r="Q10">
-        <v>2.915453882485883</v>
+        <v>3.440047340017333</v>
       </c>
       <c r="R10">
-        <v>2.915453882485883</v>
+        <v>30.960426060156</v>
       </c>
       <c r="S10">
-        <v>0.00024939279584069</v>
+        <v>0.0002635267798051054</v>
       </c>
       <c r="T10">
-        <v>0.00024939279584069</v>
+        <v>0.0004278979558859993</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>9.5008582000443</v>
+        <v>10.15686033333333</v>
       </c>
       <c r="H11">
-        <v>9.5008582000443</v>
+        <v>30.470581</v>
       </c>
       <c r="I11">
-        <v>0.1314275118431369</v>
+        <v>0.1285516919627237</v>
       </c>
       <c r="J11">
-        <v>0.1314275118431369</v>
+        <v>0.1676709028615964</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.162677416618874</v>
+        <v>0.2282923333333333</v>
       </c>
       <c r="N11">
-        <v>0.162677416618874</v>
+        <v>0.684877</v>
       </c>
       <c r="O11">
-        <v>0.001005961929607135</v>
+        <v>0.001381762322917109</v>
       </c>
       <c r="P11">
-        <v>0.001005961929607135</v>
+        <v>0.001720160208981192</v>
       </c>
       <c r="Q11">
-        <v>1.545575067645452</v>
+        <v>2.318733344837444</v>
       </c>
       <c r="R11">
-        <v>1.545575067645452</v>
+        <v>20.868600103537</v>
       </c>
       <c r="S11">
-        <v>0.0001322110734171866</v>
+        <v>0.0001776278845013376</v>
       </c>
       <c r="T11">
-        <v>0.0001322110734171866</v>
+        <v>0.0002884208153064687</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>9.5008582000443</v>
+        <v>10.15686033333333</v>
       </c>
       <c r="H12">
-        <v>9.5008582000443</v>
+        <v>30.470581</v>
       </c>
       <c r="I12">
-        <v>0.1314275118431369</v>
+        <v>0.1285516919627237</v>
       </c>
       <c r="J12">
-        <v>0.1314275118431369</v>
+        <v>0.1676709028615964</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>61.3538582707218</v>
+        <v>63.60536699999999</v>
       </c>
       <c r="N12">
-        <v>61.3538582707218</v>
+        <v>190.816101</v>
       </c>
       <c r="O12">
-        <v>0.3793989782826268</v>
+        <v>0.3849778850329995</v>
       </c>
       <c r="P12">
-        <v>0.3793989782826268</v>
+        <v>0.4792601652167268</v>
       </c>
       <c r="Q12">
-        <v>582.914307455743</v>
+        <v>646.0308290694089</v>
       </c>
       <c r="R12">
-        <v>582.914307455743</v>
+        <v>5814.27746162468</v>
       </c>
       <c r="S12">
-        <v>0.04986346371151396</v>
+        <v>0.04948955848922301</v>
       </c>
       <c r="T12">
-        <v>0.04986346371151396</v>
+        <v>0.08035798460748642</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>9.5008582000443</v>
+        <v>10.15686033333333</v>
       </c>
       <c r="H13">
-        <v>9.5008582000443</v>
+        <v>30.470581</v>
       </c>
       <c r="I13">
-        <v>0.1314275118431369</v>
+        <v>0.1285516919627237</v>
       </c>
       <c r="J13">
-        <v>0.1314275118431369</v>
+        <v>0.1676709028615964</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.74326867662065</v>
+        <v>3.671782</v>
       </c>
       <c r="N13">
-        <v>2.74326867662065</v>
+        <v>7.343564</v>
       </c>
       <c r="O13">
-        <v>0.01696377966112813</v>
+        <v>0.02222383008437381</v>
       </c>
       <c r="P13">
-        <v>0.01696377966112813</v>
+        <v>0.01844434341481282</v>
       </c>
       <c r="Q13">
-        <v>26.06340670119598</v>
+        <v>37.29377694844733</v>
       </c>
       <c r="R13">
-        <v>26.06340670119598</v>
+        <v>223.762661690684</v>
       </c>
       <c r="S13">
-        <v>0.002229507352317282</v>
+        <v>0.002856910959238333</v>
       </c>
       <c r="T13">
-        <v>0.002229507352317282</v>
+        <v>0.003092579713051004</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.498081954249804</v>
+        <v>0.6885453333333333</v>
       </c>
       <c r="H14">
-        <v>0.498081954249804</v>
+        <v>2.065636</v>
       </c>
       <c r="I14">
-        <v>0.006890079881490457</v>
+        <v>0.008714668183685525</v>
       </c>
       <c r="J14">
-        <v>0.006890079881490457</v>
+        <v>0.01136660482789667</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>93.8128443396003</v>
+        <v>93.83570850000001</v>
       </c>
       <c r="N14">
-        <v>93.8128443396003</v>
+        <v>187.671417</v>
       </c>
       <c r="O14">
-        <v>0.5801183217391283</v>
+        <v>0.5679500693534724</v>
       </c>
       <c r="P14">
-        <v>0.5801183217391283</v>
+        <v>0.4713618706519805</v>
       </c>
       <c r="Q14">
-        <v>46.72648484240078</v>
+        <v>64.610139187702</v>
       </c>
       <c r="R14">
-        <v>46.72648484240078</v>
+        <v>387.660835126212</v>
       </c>
       <c r="S14">
-        <v>0.003997061577498776</v>
+        <v>0.004949496399316693</v>
       </c>
       <c r="T14">
-        <v>0.003997061577498776</v>
+        <v>0.005357784114639206</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.498081954249804</v>
+        <v>0.6885453333333333</v>
       </c>
       <c r="H15">
-        <v>0.498081954249804</v>
+        <v>2.065636</v>
       </c>
       <c r="I15">
-        <v>0.006890079881490457</v>
+        <v>0.008714668183685525</v>
       </c>
       <c r="J15">
-        <v>0.006890079881490457</v>
+        <v>0.01136660482789667</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>3.33378248243025</v>
+        <v>3.538394</v>
       </c>
       <c r="N15">
-        <v>3.33378248243025</v>
+        <v>10.615182</v>
       </c>
       <c r="O15">
-        <v>0.02061538920779066</v>
+        <v>0.02141648579016069</v>
       </c>
       <c r="P15">
-        <v>0.02061538920779066</v>
+        <v>0.02666144970190763</v>
       </c>
       <c r="Q15">
-        <v>1.660496893892622</v>
+        <v>2.436344676194667</v>
       </c>
       <c r="R15">
-        <v>1.660496893892622</v>
+        <v>21.927102085752</v>
       </c>
       <c r="S15">
-        <v>0.0001420416784296939</v>
+        <v>0.0001866375673218665</v>
       </c>
       <c r="T15">
-        <v>0.0001420416784296939</v>
+        <v>0.0003030501629004274</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.498081954249804</v>
+        <v>0.6885453333333333</v>
       </c>
       <c r="H16">
-        <v>0.498081954249804</v>
+        <v>2.065636</v>
       </c>
       <c r="I16">
-        <v>0.006890079881490457</v>
+        <v>0.008714668183685525</v>
       </c>
       <c r="J16">
-        <v>0.006890079881490457</v>
+        <v>0.01136660482789667</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.306862161406881</v>
+        <v>0.338692</v>
       </c>
       <c r="N16">
-        <v>0.306862161406881</v>
+        <v>1.016076</v>
       </c>
       <c r="O16">
-        <v>0.001897569179718997</v>
+        <v>0.002049967416076645</v>
       </c>
       <c r="P16">
-        <v>0.001897569179718997</v>
+        <v>0.002552010805591038</v>
       </c>
       <c r="Q16">
-        <v>0.1528425050388581</v>
+        <v>0.2332047960373333</v>
       </c>
       <c r="R16">
-        <v>0.1528425050388581</v>
+        <v>2.098843164336</v>
       </c>
       <c r="S16">
-        <v>1.307440322891821E-05</v>
+        <v>1.786478581847516E-05</v>
       </c>
       <c r="T16">
-        <v>1.307440322891821E-05</v>
+        <v>2.900769834367556E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.498081954249804</v>
+        <v>0.6885453333333333</v>
       </c>
       <c r="H17">
-        <v>0.498081954249804</v>
+        <v>2.065636</v>
       </c>
       <c r="I17">
-        <v>0.006890079881490457</v>
+        <v>0.008714668183685525</v>
       </c>
       <c r="J17">
-        <v>0.006890079881490457</v>
+        <v>0.01136660482789667</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.162677416618874</v>
+        <v>0.2282923333333333</v>
       </c>
       <c r="N17">
-        <v>0.162677416618874</v>
+        <v>0.684877</v>
       </c>
       <c r="O17">
-        <v>0.001005961929607135</v>
+        <v>0.001381762322917109</v>
       </c>
       <c r="P17">
-        <v>0.001005961929607135</v>
+        <v>0.001720160208981192</v>
       </c>
       <c r="Q17">
-        <v>0.0810266855818383</v>
+        <v>0.1571896207524444</v>
       </c>
       <c r="R17">
-        <v>0.0810266855818383</v>
+        <v>1.414706586772</v>
       </c>
       <c r="S17">
-        <v>6.931158052731442E-06</v>
+        <v>1.204160015294113E-05</v>
       </c>
       <c r="T17">
-        <v>6.931158052731442E-06</v>
+        <v>1.955238133616136E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.498081954249804</v>
+        <v>0.6885453333333333</v>
       </c>
       <c r="H18">
-        <v>0.498081954249804</v>
+        <v>2.065636</v>
       </c>
       <c r="I18">
-        <v>0.006890079881490457</v>
+        <v>0.008714668183685525</v>
       </c>
       <c r="J18">
-        <v>0.006890079881490457</v>
+        <v>0.01136660482789667</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>61.3538582707218</v>
+        <v>63.60536699999999</v>
       </c>
       <c r="N18">
-        <v>61.3538582707218</v>
+        <v>190.816101</v>
       </c>
       <c r="O18">
-        <v>0.3793989782826268</v>
+        <v>0.3849778850329995</v>
       </c>
       <c r="P18">
-        <v>0.3793989782826268</v>
+        <v>0.4792601652167268</v>
       </c>
       <c r="Q18">
-        <v>30.55924962824662</v>
+        <v>43.79517862280399</v>
       </c>
       <c r="R18">
-        <v>30.55924962824662</v>
+        <v>394.1566076052359</v>
       </c>
       <c r="S18">
-        <v>0.002614089267323161</v>
+        <v>0.003354954526119625</v>
       </c>
       <c r="T18">
-        <v>0.002614089267323161</v>
+        <v>0.005447560907771001</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>24</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.498081954249804</v>
+        <v>0.6885453333333333</v>
       </c>
       <c r="H19">
-        <v>0.498081954249804</v>
+        <v>2.065636</v>
       </c>
       <c r="I19">
-        <v>0.006890079881490457</v>
+        <v>0.008714668183685525</v>
       </c>
       <c r="J19">
-        <v>0.006890079881490457</v>
+        <v>0.01136660482789667</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>2.74326867662065</v>
+        <v>3.671782</v>
       </c>
       <c r="N19">
-        <v>2.74326867662065</v>
+        <v>7.343564</v>
       </c>
       <c r="O19">
-        <v>0.01696377966112813</v>
+        <v>0.02222383008437381</v>
       </c>
       <c r="P19">
-        <v>0.01696377966112813</v>
+        <v>0.01844434341481282</v>
       </c>
       <c r="Q19">
-        <v>1.366372623483487</v>
+        <v>2.528188361117333</v>
       </c>
       <c r="R19">
-        <v>1.366372623483487</v>
+        <v>15.169130166704</v>
       </c>
       <c r="S19">
-        <v>0.0001168817969571759</v>
+        <v>0.0001936733049559256</v>
       </c>
       <c r="T19">
-        <v>0.0001168817969571759</v>
+        <v>0.0002096495629061955</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>11.5303219443302</v>
+        <v>1.163127</v>
       </c>
       <c r="H20">
-        <v>11.5303219443302</v>
+        <v>3.489381</v>
       </c>
       <c r="I20">
-        <v>0.1595015410172707</v>
+        <v>0.01472127595639153</v>
       </c>
       <c r="J20">
-        <v>0.1595015410172707</v>
+        <v>0.01920106684864657</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>93.8128443396003</v>
+        <v>93.83570850000001</v>
       </c>
       <c r="N20">
-        <v>93.8128443396003</v>
+        <v>187.671417</v>
       </c>
       <c r="O20">
-        <v>0.5801183217391283</v>
+        <v>0.5679500693534724</v>
       </c>
       <c r="P20">
-        <v>0.5801183217391283</v>
+        <v>0.4713618706519805</v>
       </c>
       <c r="Q20">
-        <v>1081.692297748927</v>
+        <v>109.1428461204795</v>
       </c>
       <c r="R20">
-        <v>1081.692297748927</v>
+        <v>654.8570767228771</v>
       </c>
       <c r="S20">
-        <v>0.0925297662897438</v>
+        <v>0.008360949700404177</v>
       </c>
       <c r="T20">
-        <v>0.0925297662897438</v>
+        <v>0.009050650788291772</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G21">
-        <v>11.5303219443302</v>
+        <v>1.163127</v>
       </c>
       <c r="H21">
-        <v>11.5303219443302</v>
+        <v>3.489381</v>
       </c>
       <c r="I21">
-        <v>0.1595015410172707</v>
+        <v>0.01472127595639153</v>
       </c>
       <c r="J21">
-        <v>0.1595015410172707</v>
+        <v>0.01920106684864657</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>3.33378248243025</v>
+        <v>3.538394</v>
       </c>
       <c r="N21">
-        <v>3.33378248243025</v>
+        <v>10.615182</v>
       </c>
       <c r="O21">
-        <v>0.02061538920779066</v>
+        <v>0.02141648579016069</v>
       </c>
       <c r="P21">
-        <v>0.02061538920779066</v>
+        <v>0.02666144970190763</v>
       </c>
       <c r="Q21">
-        <v>38.43958531478913</v>
+        <v>4.115601598038</v>
       </c>
       <c r="R21">
-        <v>38.43958531478913</v>
+        <v>37.040414382342</v>
       </c>
       <c r="S21">
-        <v>0.003288186347313421</v>
+        <v>0.0003152779973330935</v>
       </c>
       <c r="T21">
-        <v>0.003288186347313421</v>
+        <v>0.0005119282780081564</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>11.5303219443302</v>
+        <v>1.163127</v>
       </c>
       <c r="H22">
-        <v>11.5303219443302</v>
+        <v>3.489381</v>
       </c>
       <c r="I22">
-        <v>0.1595015410172707</v>
+        <v>0.01472127595639153</v>
       </c>
       <c r="J22">
-        <v>0.1595015410172707</v>
+        <v>0.01920106684864657</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.306862161406881</v>
+        <v>0.338692</v>
       </c>
       <c r="N22">
-        <v>0.306862161406881</v>
+        <v>1.016076</v>
       </c>
       <c r="O22">
-        <v>0.001897569179718997</v>
+        <v>0.002049967416076645</v>
       </c>
       <c r="P22">
-        <v>0.001897569179718997</v>
+        <v>0.002552010805591038</v>
       </c>
       <c r="Q22">
-        <v>3.538219513554356</v>
+        <v>0.393941809884</v>
       </c>
       <c r="R22">
-        <v>3.538219513554356</v>
+        <v>3.545476288956</v>
       </c>
       <c r="S22">
-        <v>0.0003026652083520582</v>
+        <v>3.017813603367519E-05</v>
       </c>
       <c r="T22">
-        <v>0.0003026652083520582</v>
+        <v>4.90013300766219E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>11.5303219443302</v>
+        <v>1.163127</v>
       </c>
       <c r="H23">
-        <v>11.5303219443302</v>
+        <v>3.489381</v>
       </c>
       <c r="I23">
-        <v>0.1595015410172707</v>
+        <v>0.01472127595639153</v>
       </c>
       <c r="J23">
-        <v>0.1595015410172707</v>
+        <v>0.01920106684864657</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.162677416618874</v>
+        <v>0.2282923333333333</v>
       </c>
       <c r="N23">
-        <v>0.162677416618874</v>
+        <v>0.684877</v>
       </c>
       <c r="O23">
-        <v>0.001005961929607135</v>
+        <v>0.001381762322917109</v>
       </c>
       <c r="P23">
-        <v>0.001005961929607135</v>
+        <v>0.001720160208981192</v>
       </c>
       <c r="Q23">
-        <v>1.875722986687549</v>
+        <v>0.265532976793</v>
       </c>
       <c r="R23">
-        <v>1.875722986687549</v>
+        <v>2.389796791137</v>
       </c>
       <c r="S23">
-        <v>0.0001604524779770453</v>
+        <v>2.034130446180735E-05</v>
       </c>
       <c r="T23">
-        <v>0.0001604524779770453</v>
+        <v>3.302891116302971E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>11.5303219443302</v>
+        <v>1.163127</v>
       </c>
       <c r="H24">
-        <v>11.5303219443302</v>
+        <v>3.489381</v>
       </c>
       <c r="I24">
-        <v>0.1595015410172707</v>
+        <v>0.01472127595639153</v>
       </c>
       <c r="J24">
-        <v>0.1595015410172707</v>
+        <v>0.01920106684864657</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>61.3538582707218</v>
+        <v>63.60536699999999</v>
       </c>
       <c r="N24">
-        <v>61.3538582707218</v>
+        <v>190.816101</v>
       </c>
       <c r="O24">
-        <v>0.3793989782826268</v>
+        <v>0.3849778850329995</v>
       </c>
       <c r="P24">
-        <v>0.3793989782826268</v>
+        <v>0.4792601652167268</v>
       </c>
       <c r="Q24">
-        <v>707.4297383882285</v>
+        <v>73.98111970260899</v>
       </c>
       <c r="R24">
-        <v>707.4297383882285</v>
+        <v>665.8300773234809</v>
       </c>
       <c r="S24">
-        <v>0.06051472169645698</v>
+        <v>0.00566736568267876</v>
       </c>
       <c r="T24">
-        <v>0.06051472169645698</v>
+        <v>0.009202306470219768</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,61 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>25</v>
       </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>24</v>
-      </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G25">
-        <v>11.5303219443302</v>
+        <v>1.163127</v>
       </c>
       <c r="H25">
-        <v>11.5303219443302</v>
+        <v>3.489381</v>
       </c>
       <c r="I25">
-        <v>0.1595015410172707</v>
+        <v>0.01472127595639153</v>
       </c>
       <c r="J25">
-        <v>0.1595015410172707</v>
+        <v>0.01920106684864657</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>2.74326867662065</v>
+        <v>3.671782</v>
       </c>
       <c r="N25">
-        <v>2.74326867662065</v>
+        <v>7.343564</v>
       </c>
       <c r="O25">
-        <v>0.01696377966112813</v>
+        <v>0.02222383008437381</v>
       </c>
       <c r="P25">
-        <v>0.01696377966112813</v>
+        <v>0.01844434341481282</v>
       </c>
       <c r="Q25">
-        <v>31.63077102123275</v>
+        <v>4.270748782314</v>
       </c>
       <c r="R25">
-        <v>31.63077102123275</v>
+        <v>25.624492693884</v>
       </c>
       <c r="S25">
-        <v>0.00270574899742737</v>
+        <v>0.000327163135480023</v>
       </c>
       <c r="T25">
-        <v>0.00270574899742737</v>
+        <v>0.000354151070887215</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,61 +2016,61 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>35.7054449358671</v>
+        <v>11.700101</v>
       </c>
       <c r="H26">
-        <v>35.7054449358671</v>
+        <v>35.100303</v>
       </c>
       <c r="I26">
-        <v>0.4939214635527624</v>
+        <v>0.1480839285294319</v>
       </c>
       <c r="J26">
-        <v>0.4939214635527624</v>
+        <v>0.1931469404776233</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>93.8128443396003</v>
+        <v>93.83570850000001</v>
       </c>
       <c r="N26">
-        <v>93.8128443396003</v>
+        <v>187.671417</v>
       </c>
       <c r="O26">
-        <v>0.5801183217391283</v>
+        <v>0.5679500693534724</v>
       </c>
       <c r="P26">
-        <v>0.5801183217391283</v>
+        <v>0.4713618706519805</v>
       </c>
       <c r="Q26">
-        <v>3349.62934784467</v>
+        <v>1097.887266856559</v>
       </c>
       <c r="R26">
-        <v>3349.62934784467</v>
+        <v>6587.323601139353</v>
       </c>
       <c r="S26">
-        <v>0.2865328905071625</v>
+        <v>0.0841042774784255</v>
       </c>
       <c r="T26">
-        <v>0.2865328905071625</v>
+        <v>0.09104210317423926</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,61 +2078,61 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>35.7054449358671</v>
+        <v>11.700101</v>
       </c>
       <c r="H27">
-        <v>35.7054449358671</v>
+        <v>35.100303</v>
       </c>
       <c r="I27">
-        <v>0.4939214635527624</v>
+        <v>0.1480839285294319</v>
       </c>
       <c r="J27">
-        <v>0.4939214635527624</v>
+        <v>0.1931469404776233</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>3.33378248243025</v>
+        <v>3.538394</v>
       </c>
       <c r="N27">
-        <v>3.33378248243025</v>
+        <v>10.615182</v>
       </c>
       <c r="O27">
-        <v>0.02061538920779066</v>
+        <v>0.02141648579016069</v>
       </c>
       <c r="P27">
-        <v>0.02061538920779066</v>
+        <v>0.02666144970190763</v>
       </c>
       <c r="Q27">
-        <v>119.0341868545716</v>
+        <v>41.39956717779401</v>
       </c>
       <c r="R27">
-        <v>119.0341868545716</v>
+        <v>372.5961046001461</v>
       </c>
       <c r="S27">
-        <v>0.01018238320922179</v>
+        <v>0.003171437351101749</v>
       </c>
       <c r="T27">
-        <v>0.01018238320922179</v>
+        <v>0.0051495774386215</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,61 +2140,61 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D28" t="s">
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>35.7054449358671</v>
+        <v>11.700101</v>
       </c>
       <c r="H28">
-        <v>35.7054449358671</v>
+        <v>35.100303</v>
       </c>
       <c r="I28">
-        <v>0.4939214635527624</v>
+        <v>0.1480839285294319</v>
       </c>
       <c r="J28">
-        <v>0.4939214635527624</v>
+        <v>0.1931469404776233</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>0.306862161406881</v>
+        <v>0.338692</v>
       </c>
       <c r="N28">
-        <v>0.306862161406881</v>
+        <v>1.016076</v>
       </c>
       <c r="O28">
-        <v>0.001897569179718997</v>
+        <v>0.002049967416076645</v>
       </c>
       <c r="P28">
-        <v>0.001897569179718997</v>
+        <v>0.002552010805591038</v>
       </c>
       <c r="Q28">
-        <v>10.95665000701455</v>
+        <v>3.962730607892</v>
       </c>
       <c r="R28">
-        <v>10.95665000701455</v>
+        <v>35.664575471028</v>
       </c>
       <c r="S28">
-        <v>0.0009372501464394217</v>
+        <v>0.0003035672283299581</v>
       </c>
       <c r="T28">
-        <v>0.0009372501464394217</v>
+        <v>0.0004929130791657438</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,61 +2202,61 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>35.7054449358671</v>
+        <v>11.700101</v>
       </c>
       <c r="H29">
-        <v>35.7054449358671</v>
+        <v>35.100303</v>
       </c>
       <c r="I29">
-        <v>0.4939214635527624</v>
+        <v>0.1480839285294319</v>
       </c>
       <c r="J29">
-        <v>0.4939214635527624</v>
+        <v>0.1931469404776233</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>0.162677416618874</v>
+        <v>0.2282923333333333</v>
       </c>
       <c r="N29">
-        <v>0.162677416618874</v>
+        <v>0.684877</v>
       </c>
       <c r="O29">
-        <v>0.001005961929607135</v>
+        <v>0.001381762322917109</v>
       </c>
       <c r="P29">
-        <v>0.001005961929607135</v>
+        <v>0.001720160208981192</v>
       </c>
       <c r="Q29">
-        <v>5.808469541394317</v>
+        <v>2.671043357525667</v>
       </c>
       <c r="R29">
-        <v>5.808469541394317</v>
+        <v>24.039390217731</v>
       </c>
       <c r="S29">
-        <v>0.0004968661885499172</v>
+        <v>0.0002046167930715189</v>
       </c>
       <c r="T29">
-        <v>0.0004968661885499172</v>
+        <v>0.0003322436814960664</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,61 +2264,61 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>35.7054449358671</v>
+        <v>11.700101</v>
       </c>
       <c r="H30">
-        <v>35.7054449358671</v>
+        <v>35.100303</v>
       </c>
       <c r="I30">
-        <v>0.4939214635527624</v>
+        <v>0.1480839285294319</v>
       </c>
       <c r="J30">
-        <v>0.4939214635527624</v>
+        <v>0.1931469404776233</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>61.3538582707218</v>
+        <v>63.60536699999999</v>
       </c>
       <c r="N30">
-        <v>61.3538582707218</v>
+        <v>190.816101</v>
       </c>
       <c r="O30">
-        <v>0.3793989782826268</v>
+        <v>0.3849778850329995</v>
       </c>
       <c r="P30">
-        <v>0.3793989782826268</v>
+        <v>0.4792601652167268</v>
       </c>
       <c r="Q30">
-        <v>2190.666808088251</v>
+        <v>744.1892180420671</v>
       </c>
       <c r="R30">
-        <v>2190.666808088251</v>
+        <v>6697.702962378603</v>
       </c>
       <c r="S30">
-        <v>0.1873932986237777</v>
+        <v>0.05700903761263856</v>
       </c>
       <c r="T30">
-        <v>0.1873932986237777</v>
+        <v>0.09256763460441104</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,61 +2326,433 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>11.700101</v>
+      </c>
+      <c r="H31">
+        <v>35.100303</v>
+      </c>
+      <c r="I31">
+        <v>0.1480839285294319</v>
+      </c>
+      <c r="J31">
+        <v>0.1931469404776233</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>3.671782</v>
+      </c>
+      <c r="N31">
+        <v>7.343564</v>
+      </c>
+      <c r="O31">
+        <v>0.02222383008437381</v>
+      </c>
+      <c r="P31">
+        <v>0.01844434341481282</v>
+      </c>
+      <c r="Q31">
+        <v>42.96022024998201</v>
+      </c>
+      <c r="R31">
+        <v>257.761321499892</v>
+      </c>
+      <c r="S31">
+        <v>0.00329099206586465</v>
+      </c>
+      <c r="T31">
+        <v>0.003562468499689695</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>40.07135599999999</v>
+      </c>
+      <c r="H32">
+        <v>80.14271199999999</v>
+      </c>
+      <c r="I32">
+        <v>0.5071685977737647</v>
+      </c>
+      <c r="J32">
+        <v>0.4410024501605956</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>93.83570850000001</v>
+      </c>
+      <c r="N32">
+        <v>187.671417</v>
+      </c>
+      <c r="O32">
+        <v>0.5679500693534724</v>
+      </c>
+      <c r="P32">
+        <v>0.4713618706519805</v>
+      </c>
+      <c r="Q32">
+        <v>3760.124080815726</v>
+      </c>
+      <c r="R32">
+        <v>15040.4963232629</v>
+      </c>
+      <c r="S32">
+        <v>0.288046440279513</v>
+      </c>
+      <c r="T32">
+        <v>0.2078717398698051</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>40.07135599999999</v>
+      </c>
+      <c r="H33">
+        <v>80.14271199999999</v>
+      </c>
+      <c r="I33">
+        <v>0.5071685977737647</v>
+      </c>
+      <c r="J33">
+        <v>0.4410024501605956</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>3.538394</v>
+      </c>
+      <c r="N33">
+        <v>10.615182</v>
+      </c>
+      <c r="O33">
+        <v>0.02141648579016069</v>
+      </c>
+      <c r="P33">
+        <v>0.02666144970190763</v>
+      </c>
+      <c r="Q33">
+        <v>141.788245642264</v>
+      </c>
+      <c r="R33">
+        <v>850.729473853584</v>
+      </c>
+      <c r="S33">
+        <v>0.01086176906743755</v>
+      </c>
+      <c r="T33">
+        <v>0.01175776464337474</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>40.07135599999999</v>
+      </c>
+      <c r="H34">
+        <v>80.14271199999999</v>
+      </c>
+      <c r="I34">
+        <v>0.5071685977737647</v>
+      </c>
+      <c r="J34">
+        <v>0.4410024501605956</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>0.338692</v>
+      </c>
+      <c r="N34">
+        <v>1.016076</v>
+      </c>
+      <c r="O34">
+        <v>0.002049967416076645</v>
+      </c>
+      <c r="P34">
+        <v>0.002552010805591038</v>
+      </c>
+      <c r="Q34">
+        <v>13.571847706352</v>
+      </c>
+      <c r="R34">
+        <v>81.43108623811199</v>
+      </c>
+      <c r="S34">
+        <v>0.001039679099893499</v>
+      </c>
+      <c r="T34">
+        <v>0.001125443018101963</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>40.07135599999999</v>
+      </c>
+      <c r="H35">
+        <v>80.14271199999999</v>
+      </c>
+      <c r="I35">
+        <v>0.5071685977737647</v>
+      </c>
+      <c r="J35">
+        <v>0.4410024501605956</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>0.2282923333333333</v>
+      </c>
+      <c r="N35">
+        <v>0.684877</v>
+      </c>
+      <c r="O35">
+        <v>0.001381762322917109</v>
+      </c>
+      <c r="P35">
+        <v>0.001720160208981192</v>
+      </c>
+      <c r="Q35">
+        <v>9.147983361070665</v>
+      </c>
+      <c r="R35">
+        <v>54.88790016642399</v>
+      </c>
+      <c r="S35">
+        <v>0.0007007864597704897</v>
+      </c>
+      <c r="T35">
+        <v>0.0007585948668294677</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
         <v>24</v>
       </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>35.7054449358671</v>
-      </c>
-      <c r="H31">
-        <v>35.7054449358671</v>
-      </c>
-      <c r="I31">
-        <v>0.4939214635527624</v>
-      </c>
-      <c r="J31">
-        <v>0.4939214635527624</v>
-      </c>
-      <c r="K31">
-        <v>1</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>2.74326867662065</v>
-      </c>
-      <c r="N31">
-        <v>2.74326867662065</v>
-      </c>
-      <c r="O31">
-        <v>0.01696377966112813</v>
-      </c>
-      <c r="P31">
-        <v>0.01696377966112813</v>
-      </c>
-      <c r="Q31">
-        <v>97.94962867736764</v>
-      </c>
-      <c r="R31">
-        <v>97.94962867736764</v>
-      </c>
-      <c r="S31">
-        <v>0.008378774877610989</v>
-      </c>
-      <c r="T31">
-        <v>0.008378774877610989</v>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>40.07135599999999</v>
+      </c>
+      <c r="H36">
+        <v>80.14271199999999</v>
+      </c>
+      <c r="I36">
+        <v>0.5071685977737647</v>
+      </c>
+      <c r="J36">
+        <v>0.4410024501605956</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>63.60536699999999</v>
+      </c>
+      <c r="N36">
+        <v>190.816101</v>
+      </c>
+      <c r="O36">
+        <v>0.3849778850329995</v>
+      </c>
+      <c r="P36">
+        <v>0.4792601652167268</v>
+      </c>
+      <c r="Q36">
+        <v>2548.753304567651</v>
+      </c>
+      <c r="R36">
+        <v>15292.51982740591</v>
+      </c>
+      <c r="S36">
+        <v>0.1952486941260959</v>
+      </c>
+      <c r="T36">
+        <v>0.2113549071249483</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>40.07135599999999</v>
+      </c>
+      <c r="H37">
+        <v>80.14271199999999</v>
+      </c>
+      <c r="I37">
+        <v>0.5071685977737647</v>
+      </c>
+      <c r="J37">
+        <v>0.4410024501605956</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>3.671782</v>
+      </c>
+      <c r="N37">
+        <v>7.343564</v>
+      </c>
+      <c r="O37">
+        <v>0.02222383008437381</v>
+      </c>
+      <c r="P37">
+        <v>0.01844434341481282</v>
+      </c>
+      <c r="Q37">
+        <v>147.133283676392</v>
+      </c>
+      <c r="R37">
+        <v>588.5331347055679</v>
+      </c>
+      <c r="S37">
+        <v>0.01127122874105427</v>
+      </c>
+      <c r="T37">
+        <v>0.0081340006375359</v>
       </c>
     </row>
   </sheetData>
